--- a/LogExcel.xlsx
+++ b/LogExcel.xlsx
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,8 +580,12 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
